--- a/curation/draft/package15/R15_SDTM_DEC_Edits.xlsx
+++ b/curation/draft/package15/R15_SDTM_DEC_Edits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AB2C46-1FC9-45D6-9DD2-1BF92D6BF1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2EF9FD-7F83-4C23-B791-8B528B76589A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{BF6E969A-CBDB-4A05-BD93-896B32CF14CF}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{BF6E969A-CBDB-4A05-BD93-896B32CF14CF}"/>
   </bookViews>
   <sheets>
     <sheet name="SDTM_DEC_Edits" sheetId="1" r:id="rId1"/>
@@ -849,7 +849,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,19 +1306,19 @@
   <dimension ref="A1:AG71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="49.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.703125" customWidth="1"/>
+    <col min="8" max="8" width="49.87890625" customWidth="1"/>
     <col min="15" max="15" width="31" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="36.28515625" customWidth="1"/>
+    <col min="17" max="17" width="19.1171875" customWidth="1"/>
+    <col min="20" max="20" width="36.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="25.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="25.7" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
     </row>
-    <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="3" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="3" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="3" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:33" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="3" customFormat="1" ht="28.7">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:33" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="3" customFormat="1" ht="28.7">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="3" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="3" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:33" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="3" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
     </row>
-    <row r="13" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="3" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="3" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="3" customFormat="1" ht="28.7">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -2465,7 +2465,7 @@
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
     </row>
-    <row r="16" spans="1:33" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="3" customFormat="1" ht="28.7">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="AF19" s="4"/>
     </row>
-    <row r="20" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -3395,7 +3395,7 @@
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
     </row>
-    <row r="28" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A28" s="4" t="s">
         <v>33</v>
       </c>
@@ -3463,7 +3463,7 @@
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" s="3" customFormat="1">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" s="3" customFormat="1">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" s="3" customFormat="1">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" s="3" customFormat="1">
       <c r="A32" s="4" t="s">
         <v>33</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" s="3" customFormat="1">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" s="3" customFormat="1">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" s="3" customFormat="1">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" s="3" customFormat="1">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" s="3" customFormat="1">
       <c r="A37" s="4" t="s">
         <v>33</v>
       </c>
@@ -4141,7 +4141,7 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" s="3" customFormat="1">
       <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="AF38" s="4"/>
     </row>
-    <row r="39" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" s="3" customFormat="1">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
@@ -4287,7 +4287,7 @@
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
     </row>
-    <row r="40" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" s="3" customFormat="1">
       <c r="A40" s="4" t="s">
         <v>33</v>
       </c>
@@ -4363,7 +4363,7 @@
       </c>
       <c r="AF40" s="4"/>
     </row>
-    <row r="41" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" s="3" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
     </row>
-    <row r="42" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" s="3" customFormat="1">
       <c r="A42" s="4" t="s">
         <v>33</v>
       </c>
@@ -4505,7 +4505,7 @@
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" s="3" customFormat="1">
       <c r="A43" s="4" t="s">
         <v>33</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" s="3" customFormat="1">
       <c r="A44" s="4" t="s">
         <v>33</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" s="3" customFormat="1">
       <c r="A45" s="4" t="s">
         <v>33</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" s="3" customFormat="1">
       <c r="A46" s="4" t="s">
         <v>33</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" s="3" customFormat="1">
       <c r="A47" s="4" t="s">
         <v>33</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" s="3" customFormat="1">
       <c r="A48" s="4" t="s">
         <v>33</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
     </row>
-    <row r="49" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" s="3" customFormat="1">
       <c r="A49" s="4" t="s">
         <v>33</v>
       </c>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="AF49" s="4"/>
     </row>
-    <row r="50" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" s="3" customFormat="1" ht="28.7">
       <c r="A50" s="4" t="s">
         <v>33</v>
       </c>
@@ -5127,7 +5127,7 @@
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
     </row>
-    <row r="51" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" s="3" customFormat="1">
       <c r="A51" s="4" t="s">
         <v>33</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
     </row>
-    <row r="52" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" s="3" customFormat="1">
       <c r="A52" s="4" t="s">
         <v>33</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
     </row>
-    <row r="53" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" s="3" customFormat="1">
       <c r="A53" s="4" t="s">
         <v>33</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
     </row>
-    <row r="54" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" s="3" customFormat="1">
       <c r="A54" s="4" t="s">
         <v>33</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
     </row>
-    <row r="55" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" s="3" customFormat="1">
       <c r="A55" s="4" t="s">
         <v>33</v>
       </c>
@@ -5499,7 +5499,7 @@
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
     </row>
-    <row r="56" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" s="3" customFormat="1">
       <c r="A56" s="4" t="s">
         <v>33</v>
       </c>
@@ -5573,7 +5573,7 @@
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
     </row>
-    <row r="57" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" s="3" customFormat="1">
       <c r="A57" s="4" t="s">
         <v>33</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
     </row>
-    <row r="58" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" s="3" customFormat="1">
       <c r="A58" s="4" t="s">
         <v>33</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
     </row>
-    <row r="59" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" s="3" customFormat="1">
       <c r="A59" s="4" t="s">
         <v>33</v>
       </c>
@@ -5791,7 +5791,7 @@
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
     </row>
-    <row r="60" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" s="3" customFormat="1">
       <c r="A60" s="4" t="s">
         <v>33</v>
       </c>
@@ -5859,7 +5859,7 @@
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
     </row>
-    <row r="61" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" s="3" customFormat="1">
       <c r="A61" s="4" t="s">
         <v>33</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
     </row>
-    <row r="62" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" s="3" customFormat="1">
       <c r="A62" s="4" t="s">
         <v>33</v>
       </c>
@@ -6011,7 +6011,7 @@
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
     </row>
-    <row r="63" spans="1:32" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" s="3" customFormat="1">
       <c r="A63" s="4" t="s">
         <v>33</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
     </row>
-    <row r="64" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" s="3" customFormat="1">
       <c r="A64" s="4" t="s">
         <v>33</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
     </row>
-    <row r="65" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" s="3" customFormat="1">
       <c r="A65" s="4" t="s">
         <v>33</v>
       </c>
@@ -6255,7 +6255,7 @@
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
     </row>
-    <row r="66" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" s="3" customFormat="1">
       <c r="A66" s="4" t="s">
         <v>33</v>
       </c>
@@ -6331,7 +6331,7 @@
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
     </row>
-    <row r="67" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" s="3" customFormat="1">
       <c r="A67" s="4" t="s">
         <v>33</v>
       </c>
@@ -6403,7 +6403,7 @@
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
     </row>
-    <row r="68" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" s="3" customFormat="1">
       <c r="A68" s="4" t="s">
         <v>33</v>
       </c>
@@ -6475,7 +6475,7 @@
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
     </row>
-    <row r="69" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" s="3" customFormat="1">
       <c r="A69" s="4" t="s">
         <v>33</v>
       </c>
@@ -6543,7 +6543,7 @@
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
     </row>
-    <row r="70" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" s="3" customFormat="1">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="4"/>
@@ -6577,7 +6577,7 @@
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
     </row>
-    <row r="71" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" s="3" customFormat="1">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="4"/>
@@ -6777,15 +6777,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7046,21 +7043,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{979D1CCF-574E-48DC-ABEF-FDADCC233F97}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB91862-FD09-4499-BA8E-43F10EE12ECD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7085,9 +7082,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB91862-FD09-4499-BA8E-43F10EE12ECD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{979D1CCF-574E-48DC-ABEF-FDADCC233F97}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>